--- a/src/R/Modals/qarm_lang.xlsx
+++ b/src/R/Modals/qarm_lang.xlsx
@@ -372,24 +372,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>qa_report_result_title</t>
+          <t>qa_report_result_correct</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QA correcto</t>
+          <t>QA correct</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>qa_report_result_incorrect</t>
+          <t>qa_report_result_title</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>QA incorrecto</t>
+          <t>QA incorrect</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QA Reporte</t>
+          <t>QA report</t>
         </is>
       </c>
     </row>
@@ -413,31 +413,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Descargar reporte</t>
+          <t>Download report</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>qa_report_result_msg</t>
+          <t>qa_report_correct</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>El reporte de QA no ha encontrado errores en los datos.</t>
+          <t>QA report found no errors in the data.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>qa_report_incorrect</t>
+          <t>qa_report_result_msg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>El reporte de QA ha encontrado errores en los datos, revisar detalles en el informe de reporte.</t>
+          <t>QA report found errors in the data. Check details in the report.</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Configuración correcta</t>
+          <t>Correct configuration</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Configuración incorrecta</t>
+          <t>Incorrect configuration</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Todos los paquetes fueron instalados</t>
+          <t>All packets were installed</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Algunos paquetes no fueron instalados:</t>
+          <t>Some packets were not installed:</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cerrar</t>
+          <t>Close</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/src/R/Modals/qarm_lang.xlsx
+++ b/src/R/Modals/qarm_lang.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QA correct</t>
+          <t>QA correcto</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>QA incorrect</t>
+          <t>QA incorrecto</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QA report</t>
+          <t>QA Reporte</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Download report</t>
+          <t>Descargar reporte</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>QA report found no errors in the data.</t>
+          <t>El reporte de QA no ha encontrado errores en los datos.</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>QA report found errors in the data. Check details in the report.</t>
+          <t>El reporte de QA ha encontrado errores en los datos, revisar detalles en el informe de reporte.</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Correct configuration</t>
+          <t>Configuración correcta</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Incorrect configuration</t>
+          <t>Configuración incorrecta</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>All packets were installed</t>
+          <t>Todos los paquetes fueron instalados</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Some packets were not installed:</t>
+          <t>Algunos paquetes no fueron instalados:</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Cerrar</t>
         </is>
       </c>
     </row>
